--- a/Config.xlsx
+++ b/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vichen\Documents\UiPath\ZhengxinPrepare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff676781a3525b3e/文档/UiPath/ZhengxinPrepare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAB6F36-97B7-4615-9129-1E751384660C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{86E63626-8D0D-4D37-B819-F3037E592772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{268687CF-6B24-4C2F-9C83-28DACEB6736D}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asset" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Asset Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QueueForCSVFilename2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>读取CSV文件后是否将其删除，默认不删除。值受客户端配置文件影响。</t>
   </si>
   <si>
@@ -147,16 +143,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存</t>
-    </r>
+    <t>统计结果保存路径</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SourcePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZXConfig.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Temp\Zhengxin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Temp\Zhengxin\Download\</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C:\Temp\Zhengxin\Result.csv</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>每次处理的CSV文件名都再这里排队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueueForProcessFolder</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下载完毕所在文件夹（每次下载都会创建子文件夹）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>QueueForDeviceList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>待读取设备队列，再下载的流程Zhengxin-Download里面使用</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ZXSBSJ_DownloadFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Temp\Zhengxin\DownloadFromDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定从设备上下载的路径，下载的时候生成，临时生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueueForTiggerMerge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于触发合并动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\temp\zhengxin\DataFromDevices\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于存储下载文件（不直接用于合并，合并文件再Download里面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -174,36 +236,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的路径</t>
+      <t>的路径，用于合并</t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>统计结果保存路径</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SourcePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZXConfig.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Temp\Zhengxin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Temp\Zhengxin\Download\</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>C:\Temp\Zhengxin\Result.csv</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -567,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -592,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -606,70 +640,90 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -681,10 +735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10803E99-2EBB-42C7-945A-70B6F51FBD49}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -695,67 +749,78 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -767,15 +832,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5390816D-ED31-463B-BEF4-F595C8AB0EA4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -790,10 +856,32 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
